--- a/xlsx/社会_intext.xlsx
+++ b/xlsx/社会_intext.xlsx
@@ -15,1497 +15,1485 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
   <si>
     <t>社会</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>人类学</t>
+  </si>
+  <si>
+    <t>政策_政策_政治_社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%B3%AA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>体质人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>文化人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>语言人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>考古学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>应用人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
+  </si>
+  <si>
+    <t>民族志</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%88%87%E8%A7%80%E5%AF%9F</t>
+  </si>
+  <si>
+    <t>参与观察</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
+  </si>
+  <si>
+    <t>文化相对论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>史前史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%BC%94%E5%8C%96</t>
+  </si>
+  <si>
+    <t>人类演化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
+  </si>
+  <si>
+    <t>亲属</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%A7%BB</t>
+  </si>
+  <si>
+    <t>婚姻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>物质文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>社会化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>殖民主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宗教人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生态人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经济人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>民族学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8C%BB%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法医人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>媒体人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>医疗人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>都市人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>视觉人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>历史人类学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>人类学史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>人类学家列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>社会学理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>社会学史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>实证主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Antipositivism</t>
+  </si>
+  <si>
+    <t>en-Antipositivism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>结构主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%AA%81%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>冲突理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%82%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>中层理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>数理社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>批判理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
+  </si>
+  <si>
+    <t>结构与能动性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>社会调查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%87%8F%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>定量研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E6%80%A7%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>定性研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>计算社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>社会变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>都市社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
+  </si>
+  <si>
+    <t>社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>犯罪学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>反文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%90%86%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>发展理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>越轨社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人口学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
+  </si>
+  <si>
+    <t>社会不平等</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_sociology</t>
+  </si>
+  <si>
+    <t>en-Environmental sociology</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_the_family</t>
+  </si>
+  <si>
+    <t>en-Sociology of the family</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_health_and_illness</t>
+  </si>
+  <si>
+    <t>en-Sociology of health and illness</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>工业社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>网际网路社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>知识社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>法律社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_literature</t>
+  </si>
+  <si>
+    <t>en-Sociology of literature</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E7%96%97%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>医疗社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B5%81%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>社会流动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>社会运动</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
+  </si>
+  <si>
+    <t>en-Organizational theory</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_race_and_ethnic_relations</t>
+  </si>
+  <si>
+    <t>en-Sociology of race and ethnic relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>乡村社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宗教社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>体育社会学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sociology_of_scientific_knowledge</t>
+  </si>
+  <si>
+    <t>en-Sociology of scientific knowledge</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_sociology</t>
+  </si>
+  <si>
+    <t>en-Military sociology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>传播社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E5%8C%96_(%E7%A4%BE%E4%BC%9A%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>理性化 (社会学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
+  </si>
+  <si>
+    <t>群体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
+  </si>
+  <si>
+    <t>世俗化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7%E7%BD%91%E7%BB%9C</t>
+  </si>
+  <si>
+    <t>社会性网络</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>社会企业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>经济地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>经济思想史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会生物学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>文化研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>性别研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会地理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会语言学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>媒体研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>系统科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>世界体系理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>Template talk-社会学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94</t>
+  </si>
+  <si>
+    <t>个体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%96%93</t>
+  </si>
+  <si>
+    <t>空间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E4%BF%97</t>
+  </si>
+  <si>
+    <t>风俗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E6%83%AF</t>
+  </si>
+  <si>
+    <t>习惯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E5%B0%8F%E8%AA%AA</t>
+  </si>
+  <si>
+    <t>科幻小说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%98%9F%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>外星人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%84%89</t>
+  </si>
+  <si>
+    <t>乡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%91</t>
+  </si>
+  <si>
+    <t>村</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
+  </si>
+  <si>
+    <t>镇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%9C%88</t>
+  </si>
+  <si>
+    <t>文化圈</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>东南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
+  </si>
+  <si>
+    <t>西方</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
+  </si>
+  <si>
+    <t>习俗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E4%BD%93</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E9%83%A8%E8%90%BD</t>
+  </si>
+  <si>
+    <t>原始部落</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E5%B1%85</t>
+  </si>
+  <si>
+    <t>定居</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E5%B1%85%E7%82%B9</t>
+  </si>
+  <si>
+    <t>聚居点</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>春社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%85%83%E8%80%81</t>
+  </si>
+  <si>
+    <t>孟元老</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC%E6%A2%A6%E5%8D%8E%E5%BD%95</t>
+  </si>
+  <si>
+    <t>东京梦华录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%BE%A4%E8%AB%AD%E5%90%89</t>
+  </si>
+  <si>
+    <t>福泽谕吉</t>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E5%AD%A6%E5%95%8F%E3%81%AE%E3%81%99%E3%82%9D%E3%82%81</t>
+  </si>
+  <si>
+    <t>ja-学问のすゝめ</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>和制汉语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%BE%A9</t>
+  </si>
+  <si>
+    <t>严复</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5%E6%8E%A1%E9%9B%86</t>
+  </si>
+  <si>
+    <t>狩猎采集</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>产业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>后工业社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Maurice_Godelier</t>
+  </si>
+  <si>
+    <t>en-Maurice Godelier</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%95%B7%E7%9B%AE</t>
+  </si>
+  <si>
+    <t>灵长目</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>社会学家</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gerhard_Lenski</t>
+  </si>
+  <si>
+    <t>en-Gerhard Lenski</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>人类学家</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Morton_Fried</t>
+  </si>
+  <si>
+    <t>en-Morton Fried</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Elman_Service</t>
+  </si>
+  <si>
+    <t>en-Elman Service</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0</t>
+  </si>
+  <si>
+    <t>信仰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%BC%94%E5%8C%96</t>
+  </si>
+  <si>
+    <t>社会演化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
+  </si>
+  <si>
+    <t>部落</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9F%B3%E5%99%A8%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>新石器革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
+  </si>
+  <si>
+    <t>城邦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_subsistence_techniques</t>
+  </si>
+  <si>
+    <t>en-List of subsistence techniques</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/pre-industrial</t>
+  </si>
+  <si>
+    <t>en-pre-industrial</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Industrial_society</t>
+  </si>
+  <si>
+    <t>en-Industrial society</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pre-industrial_society</t>
+  </si>
+  <si>
+    <t>en-Pre-industrial society</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pastoral_society</t>
+  </si>
+  <si>
+    <t>en-Pastoral society</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D</t>
+  </si>
+  <si>
+    <t>园艺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>农业社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
+  </si>
+  <si>
+    <t>封建制度 (欧洲)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B8%8C%E6%9B%BC%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>布希曼人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Band_society</t>
+  </si>
+  <si>
+    <t>en-Band society</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E7%89%A9</t>
+  </si>
+  <si>
+    <t>遗物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%9E%97%E5%90%89%E7%89%B9%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>特林吉特人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%82%A6</t>
+  </si>
+  <si>
+    <t>酋邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>领导力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%BF</t>
+  </si>
+  <si>
+    <t>酋长</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/social_unit</t>
+  </si>
+  <si>
+    <t>en-social unit</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pastoralism</t>
+  </si>
+  <si>
+    <t>en-Pastoralism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7</t>
+  </si>
+  <si>
+    <t>工具</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E5%AF%B6</t>
+  </si>
+  <si>
+    <t>珠宝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C</t>
+  </si>
+  <si>
+    <t>财富</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Horticulturalist_society</t>
+  </si>
+  <si>
+    <t>en-Horticulturalist society</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E8%A6%A1%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>巫觋宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>领主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9F%9F%E7%AD%89%E7%B4%9A</t>
+  </si>
+  <si>
+    <t>领域等级</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>西方文化</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Judeo-Christian_values</t>
+  </si>
+  <si>
+    <t>en-Judeo-Christian values</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>资讯社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E7%A9%BA%E9%96%93</t>
+  </si>
+  <si>
+    <t>网路空间</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧盟</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/digital_economy</t>
+  </si>
+  <si>
+    <t>en-digital economy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%8F%8A%E9%80%9A%E4%BF%A1%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>信息及通信技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99</t>
+  </si>
+  <si>
+    <t>公共服务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E8%B4%A8%E9%87%8F</t>
+  </si>
+  <si>
+    <t>生活质量</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E4%BF%A1%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国际电信联盟</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/World_Summit_on_the_Information_Society</t>
+  </si>
+  <si>
+    <t>en-World Summit on the Information Society</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Cyworld</t>
+  </si>
+  <si>
+    <t>Cyworld</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Knowledge_society</t>
+  </si>
+  <si>
+    <t>en-Knowledge society</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9</t>
+  </si>
+  <si>
+    <t>克里特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>干尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BA%A7%E8%BD%AF%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>企业级软件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>教育技术学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7%E8%BD%AF%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>社会性软件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%94%BF%E5%8A%A1</t>
+  </si>
+  <si>
+    <t>电子政务</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/e-democracy</t>
+  </si>
+  <si>
+    <t>en-e-democracy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>服务科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>人力资本</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/green_economy</t>
+  </si>
+  <si>
+    <t>en-green economy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%94%A2%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>创意产业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>马克思主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%94%9F%E6%85%8B%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>都市生态学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>公民社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>消费主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%81%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>上流社会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mass_society</t>
+  </si>
+  <si>
+    <t>en-Mass society</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>开放社会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Outline_of_society</t>
+  </si>
+  <si>
+    <t>en-Outline of society</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>专业机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Scientific_society</t>
+  </si>
+  <si>
+    <t>en-Scientific society</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E7%B5%90%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>秘密结社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A1%8C%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>社会行动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B5%84%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>社会资本</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_cohesion</t>
+  </si>
+  <si>
+    <t>en-Social cohesion</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Societal_collapse</t>
+  </si>
+  <si>
+    <t>en-Societal collapse</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
+  </si>
+  <si>
+    <t>社会契约</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_disintegration</t>
+  </si>
+  <si>
+    <t>en-Social disintegration</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%A9%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>社会秩序</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%A2%E7%BB%93</t>
+  </si>
+  <si>
+    <t>团结</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%BB%93%E6%9E%84</t>
+  </si>
+  <si>
+    <t>社会结构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%B7%A5%E4%BD%9C</t>
+  </si>
+  <si>
+    <t>社会工作</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E4%BA%A4%E6%B5%81</t>
+  </si>
+  <si>
+    <t>人类交流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93</t>
+  </si>
+  <si>
+    <t>人体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
+  </si>
+  <si>
+    <t>人脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%A4%96%E8%B2%8C</t>
+  </si>
+  <si>
+    <t>人类外貌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7</t>
+  </si>
+  <si>
+    <t>人性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
+  </si>
+  <si>
+    <t>健康</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%80%A7%E5%BE%B5</t>
+  </si>
+  <si>
+    <t>第二性征</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2</t>
+  </si>
+  <si>
+    <t>金钱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>
+  </si>
+  <si>
+    <t>权利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%A7%A3%E5%89%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人体解剖学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>遗传学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
+  </si>
+  <si>
+    <t>自然</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>人類學</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%B3%AA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>體質人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>文化人类学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>語言人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>考古學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>應用人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
-  </si>
-  <si>
-    <t>民族誌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%88%87%E8%A7%80%E5%AF%9F</t>
-  </si>
-  <si>
-    <t>參與觀察</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
-  </si>
-  <si>
-    <t>文化相對論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>史前史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%BC%94%E5%8C%96</t>
-  </si>
-  <si>
-    <t>人類演化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
-  </si>
-  <si>
-    <t>親屬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%A7%BB</t>
-  </si>
-  <si>
-    <t>婚姻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>家庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>物質文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
-  </si>
-  <si>
-    <t>種族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
-  </si>
-  <si>
-    <t>性別</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>社會化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>殖民主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宗教人类学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生態人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>民族學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8C%BB%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法医人类学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>媒體人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>醫療人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>都市人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>視覺人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>歷史人類學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>人類學史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>人类学家列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>社会学理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>社會學史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>实证主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Antipositivism</t>
-  </si>
-  <si>
-    <t>en-Antipositivism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%93%E6%9E%84%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>结构主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B2%E7%AA%81%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>冲突理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%82%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>中层理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>数理社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>批判理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
-  </si>
-  <si>
-    <t>結構與能動性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>社会调查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E9%87%8F%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>定量研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E6%80%A7%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>定性研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>計算社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>社會變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>都市社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
-  </si>
-  <si>
-    <t>社会阶层</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>犯罪學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>反文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%90%86%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>发展理论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>越軌社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人口学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
-  </si>
-  <si>
-    <t>社會不平等</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_sociology</t>
-  </si>
-  <si>
-    <t>en-Environmental sociology</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_the_family</t>
-  </si>
-  <si>
-    <t>en-Sociology of the family</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_health_and_illness</t>
-  </si>
-  <si>
-    <t>en-Sociology of health and illness</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>工業社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>網際網路社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>知识社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>法律社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_literature</t>
-  </si>
-  <si>
-    <t>en-Sociology of literature</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E7%96%97%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>医疗社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B5%81%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>社会流动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>社會運動</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
-  </si>
-  <si>
-    <t>en-Organizational theory</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_race_and_ethnic_relations</t>
-  </si>
-  <si>
-    <t>en-Sociology of race and ethnic relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>鄉村社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宗教社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>体育社会学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sociology_of_scientific_knowledge</t>
-  </si>
-  <si>
-    <t>en-Sociology of scientific knowledge</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_sociology</t>
-  </si>
-  <si>
-    <t>en-Military sociology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>传播社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E5%8C%96_(%E7%A4%BE%E4%BC%9A%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>理性化 (社会学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
-  </si>
-  <si>
-    <t>群體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
-  </si>
-  <si>
-    <t>世俗化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7%E7%BD%91%E7%BB%9C</t>
-  </si>
-  <si>
-    <t>社会性网络</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>社會企業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>經濟思想史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会生物学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>文化研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%AB%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>性别研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會地理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会语言学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>媒體研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>系统科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>世界體系理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>Template talk-社会学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E9%AB%94</t>
-  </si>
-  <si>
-    <t>個體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%96%93</t>
-  </si>
-  <si>
-    <t>空間</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E4%BF%97</t>
-  </si>
-  <si>
-    <t>風俗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E6%83%AF</t>
-  </si>
-  <si>
-    <t>习惯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
-  </si>
-  <si>
-    <t>人類</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E5%B0%8F%E8%AA%AA</t>
-  </si>
-  <si>
-    <t>科幻小說</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%98%9F%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>外星人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%89</t>
-  </si>
-  <si>
-    <t>鄉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%91</t>
-  </si>
-  <si>
-    <t>村</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
-  </si>
-  <si>
-    <t>鎮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
-  </si>
-  <si>
-    <t>城市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%9C%88</t>
-  </si>
-  <si>
-    <t>文化圈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>東亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>東南亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
-  </si>
-  <si>
-    <t>西方</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E4%BF%97</t>
-  </si>
-  <si>
-    <t>習俗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E4%BD%93</t>
-  </si>
-  <si>
-    <t>群体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E9%83%A8%E8%90%BD</t>
-  </si>
-  <si>
-    <t>原始部落</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E5%B1%85</t>
-  </si>
-  <si>
-    <t>定居</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E5%B1%85%E7%82%B9</t>
-  </si>
-  <si>
-    <t>聚居点</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>春社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%85%83%E8%80%81</t>
-  </si>
-  <si>
-    <t>孟元老</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%AC%E6%A2%A6%E5%8D%8E%E5%BD%95</t>
-  </si>
-  <si>
-    <t>东京梦华录</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%BE%A4%E8%AB%AD%E5%90%89</t>
-  </si>
-  <si>
-    <t>福澤諭吉</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E5%AD%A6%E5%95%8F%E3%81%AE%E3%81%99%E3%82%9D%E3%82%81</t>
-  </si>
-  <si>
-    <t>ja-学問のすゝめ</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E6%BC%A2%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>和製漢語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9A%B4%E5%BE%A9</t>
-  </si>
-  <si>
-    <t>嚴復</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5%E6%8E%A1%E9%9B%86</t>
-  </si>
-  <si>
-    <t>狩獵採集</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>产业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>後工業社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人类学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Maurice_Godelier</t>
-  </si>
-  <si>
-    <t>en-Maurice Godelier</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%95%B7%E7%9B%AE</t>
-  </si>
-  <si>
-    <t>靈長目</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>社會學家</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gerhard_Lenski</t>
-  </si>
-  <si>
-    <t>en-Gerhard Lenski</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>人類學家</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Morton_Fried</t>
-  </si>
-  <si>
-    <t>en-Morton Fried</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Elman_Service</t>
-  </si>
-  <si>
-    <t>en-Elman Service</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0</t>
-  </si>
-  <si>
-    <t>信仰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%BC%94%E5%8C%96</t>
-  </si>
-  <si>
-    <t>社會演化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
-  </si>
-  <si>
-    <t>部落</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9F%B3%E5%99%A8%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>新石器革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
-  </si>
-  <si>
-    <t>城邦</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_subsistence_techniques</t>
-  </si>
-  <si>
-    <t>en-List of subsistence techniques</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/pre-industrial</t>
-  </si>
-  <si>
-    <t>en-pre-industrial</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Industrial_society</t>
-  </si>
-  <si>
-    <t>en-Industrial society</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pre-industrial_society</t>
-  </si>
-  <si>
-    <t>en-Pre-industrial society</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pastoral_society</t>
-  </si>
-  <si>
-    <t>en-Pastoral society</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%92%E8%97%9D</t>
-  </si>
-  <si>
-    <t>園藝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>農業社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
-  </si>
-  <si>
-    <t>封建制度 (歐洲)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B8%8C%E6%9B%BC%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>布希曼人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Band_society</t>
-  </si>
-  <si>
-    <t>en-Band society</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E7%89%A9</t>
-  </si>
-  <si>
-    <t>遺物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%9E%97%E5%90%89%E7%89%B9%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>特林吉特人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%82%A6</t>
-  </si>
-  <si>
-    <t>酋邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>領導力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%8B%E9%95%BF</t>
-  </si>
-  <si>
-    <t>酋长</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/social_unit</t>
-  </si>
-  <si>
-    <t>en-social unit</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pastoralism</t>
-  </si>
-  <si>
-    <t>en-Pastoralism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7</t>
-  </si>
-  <si>
-    <t>工具</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
-  </si>
-  <si>
-    <t>武器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E5%AF%B6</t>
-  </si>
-  <si>
-    <t>珠寶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C</t>
-  </si>
-  <si>
-    <t>财富</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Horticulturalist_society</t>
-  </si>
-  <si>
-    <t>en-Horticulturalist society</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%AB%E8%A6%A1%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>巫覡宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>领主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%9F%9F%E7%AD%89%E7%B4%9A</t>
-  </si>
-  <si>
-    <t>領域等級</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>西方文化</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Judeo-Christian_values</t>
-  </si>
-  <si>
-    <t>en-Judeo-Christian values</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>資訊社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E7%A9%BA%E9%96%93</t>
-  </si>
-  <si>
-    <t>網路空間</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>歐盟</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/digital_economy</t>
-  </si>
-  <si>
-    <t>en-digital economy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%8F%8A%E9%80%9A%E4%BF%A1%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>信息及通信技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99</t>
-  </si>
-  <si>
-    <t>公共服務</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB%E8%B4%A8%E9%87%8F</t>
-  </si>
-  <si>
-    <t>生活质量</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E4%BF%A1%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>国际电信联盟</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/World_Summit_on_the_Information_Society</t>
-  </si>
-  <si>
-    <t>en-World Summit on the Information Society</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Cyworld</t>
-  </si>
-  <si>
-    <t>Cyworld</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Knowledge_society</t>
-  </si>
-  <si>
-    <t>en-Knowledge society</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9</t>
-  </si>
-  <si>
-    <t>克里特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>干尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BA%A7%E8%BD%AF%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>企业级软件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>教育技术学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%80%A7%E8%BD%AF%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>社会性软件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%94%BF%E5%8A%A1</t>
-  </si>
-  <si>
-    <t>电子政务</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/e-democracy</t>
-  </si>
-  <si>
-    <t>en-e-democracy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>服務科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>人力资本</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/green_economy</t>
-  </si>
-  <si>
-    <t>en-green economy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%94%A2%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>創意產業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>馬克思主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%94%9F%E6%85%8B%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>都市生態學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>公民社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>消費主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%81%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>上流社會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mass_society</t>
-  </si>
-  <si>
-    <t>en-Mass society</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>开放社会</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Outline_of_society</t>
-  </si>
-  <si>
-    <t>en-Outline of society</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>專業機構</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Scientific_society</t>
-  </si>
-  <si>
-    <t>en-Scientific society</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E7%B5%90%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>秘密結社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會生物學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A1%8C%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>社会行动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B5%84%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>社会资本</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_cohesion</t>
-  </si>
-  <si>
-    <t>en-Social cohesion</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Societal_collapse</t>
-  </si>
-  <si>
-    <t>en-Societal collapse</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
-  </si>
-  <si>
-    <t>社會契約</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_disintegration</t>
-  </si>
-  <si>
-    <t>en-Social disintegration</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%A9%E5%BA%8F</t>
-  </si>
-  <si>
-    <t>社會秩序</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%A2%E7%BB%93</t>
-  </si>
-  <si>
-    <t>团结</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%BB%93%E6%9E%84</t>
-  </si>
-  <si>
-    <t>社会结构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%B7%A5%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>社會工作</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>艺术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E4%BA%A4%E6%B5%81</t>
-  </si>
-  <si>
-    <t>人类交流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%B4%BB</t>
-  </si>
-  <si>
-    <t>生活</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93</t>
-  </si>
-  <si>
-    <t>人体</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
-  </si>
-  <si>
-    <t>人腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%A4%96%E8%B2%8C</t>
-  </si>
-  <si>
-    <t>人类外貌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%80%A7</t>
-  </si>
-  <si>
-    <t>人性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7</t>
-  </si>
-  <si>
-    <t>健康</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%80%A7%E5%BE%B5</t>
-  </si>
-  <si>
-    <t>第二性徵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2</t>
-  </si>
-  <si>
-    <t>金錢</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%88%A9</t>
-  </si>
-  <si>
-    <t>权利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%A7%A3%E5%89%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人体解剖学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>遗传学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6</t>
-  </si>
-  <si>
-    <t>自然</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -2285,7 +2273,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2343,7 +2331,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -2372,7 +2360,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -2401,7 +2389,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -2430,7 +2418,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -2459,7 +2447,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -2488,7 +2476,7 @@
         <v>44</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>4</v>
@@ -2546,7 +2534,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -2894,7 +2882,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -2923,7 +2911,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -2952,7 +2940,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -3010,7 +2998,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -3184,7 +3172,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -3242,7 +3230,7 @@
         <v>96</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -3358,7 +3346,7 @@
         <v>104</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -3387,7 +3375,7 @@
         <v>106</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -3416,7 +3404,7 @@
         <v>108</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -3474,7 +3462,7 @@
         <v>112</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -3503,7 +3491,7 @@
         <v>114</v>
       </c>
       <c r="G57" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -3532,7 +3520,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -3561,7 +3549,7 @@
         <v>118</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -3590,7 +3578,7 @@
         <v>120</v>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -3619,7 +3607,7 @@
         <v>122</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3735,7 +3723,7 @@
         <v>130</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -3764,7 +3752,7 @@
         <v>132</v>
       </c>
       <c r="G66" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3793,7 +3781,7 @@
         <v>134</v>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -3822,7 +3810,7 @@
         <v>136</v>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -3851,7 +3839,7 @@
         <v>138</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -3880,7 +3868,7 @@
         <v>140</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -3909,7 +3897,7 @@
         <v>142</v>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -3996,7 +3984,7 @@
         <v>148</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -4025,7 +4013,7 @@
         <v>150</v>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -4054,7 +4042,7 @@
         <v>152</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -4083,7 +4071,7 @@
         <v>154</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -4112,7 +4100,7 @@
         <v>156</v>
       </c>
       <c r="G78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -4257,7 +4245,7 @@
         <v>166</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -4286,7 +4274,7 @@
         <v>168</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -4454,10 +4442,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>8</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4483,10 +4471,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4512,10 +4500,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4808,7 +4796,7 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4837,7 +4825,7 @@
         <v>202</v>
       </c>
       <c r="G103" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4860,13 +4848,13 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4889,13 +4877,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -4924,7 +4912,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4982,7 +4970,7 @@
         <v>210</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5011,7 +4999,7 @@
         <v>212</v>
       </c>
       <c r="G109" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5040,7 +5028,7 @@
         <v>214</v>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -5098,7 +5086,7 @@
         <v>218</v>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -5127,7 +5115,7 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -5156,7 +5144,7 @@
         <v>222</v>
       </c>
       <c r="G114" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5185,7 +5173,7 @@
         <v>224</v>
       </c>
       <c r="G115" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5214,7 +5202,7 @@
         <v>226</v>
       </c>
       <c r="G116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5243,7 +5231,7 @@
         <v>228</v>
       </c>
       <c r="G117" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -5272,7 +5260,7 @@
         <v>230</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5301,7 +5289,7 @@
         <v>232</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -5388,7 +5376,7 @@
         <v>238</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -5417,7 +5405,7 @@
         <v>240</v>
       </c>
       <c r="G123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5443,10 +5431,10 @@
         <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5469,13 +5457,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="G125" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5498,10 +5486,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5527,10 +5515,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5556,13 +5544,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5585,13 +5573,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="G129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5614,10 +5602,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5643,13 +5631,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5672,13 +5660,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5701,10 +5689,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5730,10 +5718,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5759,10 +5747,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5788,13 +5776,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5817,13 +5805,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -5846,13 +5834,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5875,13 +5863,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5904,13 +5892,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5933,13 +5921,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5962,10 +5950,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5991,13 +5979,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -6020,13 +6008,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -6049,13 +6037,13 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6078,13 +6066,13 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6107,13 +6095,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6136,13 +6124,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -6165,10 +6153,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6194,10 +6182,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6223,10 +6211,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6252,13 +6240,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6281,13 +6269,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6310,10 +6298,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6339,10 +6327,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6368,10 +6356,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6397,10 +6385,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6426,13 +6414,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6455,13 +6443,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6484,13 +6472,13 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -6513,13 +6501,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6542,13 +6530,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6571,13 +6559,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6600,10 +6588,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>6</v>
@@ -6629,13 +6617,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6658,10 +6646,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6687,10 +6675,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="F167" t="s">
-        <v>222</v>
+        <v>317</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6716,10 +6704,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6745,10 +6733,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6774,10 +6762,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6803,10 +6791,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6832,13 +6820,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -6861,13 +6849,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -6890,10 +6878,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6919,13 +6907,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -6948,13 +6936,13 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G176" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -6977,10 +6965,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7006,10 +6994,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7035,13 +7023,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -7064,13 +7052,13 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="G180" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7093,10 +7081,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7122,13 +7110,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7151,13 +7139,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7180,13 +7168,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7209,13 +7197,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="F185" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7238,13 +7226,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G186" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7267,13 +7255,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7296,13 +7284,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7325,10 +7313,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7354,13 +7342,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7383,13 +7371,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G191" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7412,10 +7400,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7441,10 +7429,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7470,13 +7458,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7499,13 +7487,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7528,10 +7516,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7557,10 +7545,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7586,10 +7574,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7615,10 +7603,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7644,10 +7632,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7673,10 +7661,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7702,10 +7690,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7731,10 +7719,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7760,10 +7748,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7789,10 +7777,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7818,10 +7806,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7847,10 +7835,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7876,10 +7864,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7905,10 +7893,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7934,10 +7922,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7963,10 +7951,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7992,10 +7980,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8021,10 +8009,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8050,10 +8038,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8079,10 +8067,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8108,10 +8096,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8137,10 +8125,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8166,10 +8154,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8195,10 +8183,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8224,10 +8212,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8253,10 +8241,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8282,10 +8270,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8311,10 +8299,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8340,10 +8328,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8369,10 +8357,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8398,10 +8386,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8427,10 +8415,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8456,10 +8444,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8485,10 +8473,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8514,10 +8502,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8543,10 +8531,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8572,10 +8560,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8601,13 +8589,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -8630,13 +8618,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -8659,13 +8647,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -8688,13 +8676,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -8717,10 +8705,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8746,13 +8734,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -8775,13 +8763,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -8804,13 +8792,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>28</v>
       </c>
       <c r="G240" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -8833,13 +8821,13 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>29</v>
+        <v>344</v>
       </c>
       <c r="F241" t="s">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -8862,13 +8850,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
       <c r="F242" t="s">
-        <v>350</v>
+        <v>458</v>
       </c>
       <c r="G242" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -8891,10 +8879,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8920,10 +8908,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8949,10 +8937,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8978,13 +8966,13 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9007,10 +8995,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9036,13 +9024,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9065,10 +9053,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9094,10 +9082,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9123,10 +9111,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9152,10 +9140,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9181,13 +9169,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>212</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9210,13 +9198,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -9239,10 +9227,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9268,13 +9256,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9297,13 +9285,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G257" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -9326,10 +9314,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9355,18 +9343,47 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G259" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
       </c>
       <c r="I259" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" t="n">
+        <v>259</v>
+      </c>
+      <c r="E260" t="s">
+        <v>490</v>
+      </c>
+      <c r="F260" t="s">
+        <v>492</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="s">
+        <v>4</v>
+      </c>
+      <c r="I260" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/社会_intext.xlsx
+++ b/xlsx/社会_intext.xlsx
@@ -29,7 +29,7 @@
     <t>人類學</t>
   </si>
   <si>
-    <t>政策_政策_政治_社会</t>
+    <t>体育运动_体育运动_文化_社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%B3%AA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
